--- a/template/malaba/Proforma_Invoice malaba.xlsx
+++ b/template/malaba/Proforma_Invoice malaba.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomeLabs\Desktop\OGEFREM\malaba docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ogefram\python-prototype\template\malaba\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC49119-9470-433F-9992-3DBDE31DD211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11472" yWindow="0" windowWidth="8928" windowHeight="6180"/>
+    <workbookView xWindow="5117" yWindow="2331" windowWidth="16457" windowHeight="9995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -226,14 +227,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red][$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1091,21 +1092,112 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,99 +1220,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,16 +1250,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>692025</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1120857</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>250083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>713999</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2165428</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1102995</xdr:rowOff>
+      <xdr:rowOff>1210203</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1289,8 +1288,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4353074" y="331023"/>
-          <a:ext cx="1025431" cy="960120"/>
+          <a:off x="9004752" y="439759"/>
+          <a:ext cx="1044571" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1659420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1425533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EB5D4A-E581-4A41-AA06-901980920A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="313377" y="189676"/>
+          <a:ext cx="1659420" cy="1425533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,81 +1647,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.4609375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14.4609375" customWidth="1"/>
+    <col min="5" max="5" width="12.765625" customWidth="1"/>
+    <col min="6" max="6" width="15.53515625" customWidth="1"/>
+    <col min="7" max="7" width="16.23046875" style="25" customWidth="1"/>
     <col min="8" max="8" width="35" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-    </row>
-    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="64" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1"/>
+    <row r="2" spans="2:8" ht="112.5" customHeight="1">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="2:8" ht="18" customHeight="1">
+      <c r="B3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.45">
+      <c r="B4" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-    </row>
-    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
+    </row>
+    <row r="5" spans="2:8" ht="18" customHeight="1">
       <c r="B5" s="1"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15.65" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="81" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="7">
         <f ca="1">TODAY()</f>
-        <v>45885</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1681,49 +1730,49 @@
       <c r="G7" s="26"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="2:8" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84" t="s">
+    <row r="8" spans="2:8" ht="32.6" customHeight="1">
+      <c r="B8" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="79" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="56" t="s">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.45">
+      <c r="B11" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+    </row>
+    <row r="12" spans="2:8" ht="15" thickBot="1">
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1732,7 +1781,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="15" thickBot="1">
       <c r="B13" s="12" t="s">
         <v>1</v>
       </c>
@@ -1755,14 +1804,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="88" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14" s="76" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="47">
         <v>15.773</v>
       </c>
       <c r="E14" s="18">
@@ -1780,8 +1829,8 @@
         <v>246058.8</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="89"/>
+    <row r="15" spans="2:8" ht="15" thickBot="1">
+      <c r="B15" s="77"/>
       <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
@@ -1803,21 +1852,21 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="67" t="s">
+    <row r="16" spans="2:8" ht="16.3" thickBot="1">
+      <c r="B16" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="20">
         <f>SUM(F14:F15)</f>
         <v>103.092</v>
       </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-    </row>
-    <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="2:8" ht="23.15" customHeight="1" thickBot="1">
       <c r="B17" s="16" t="s">
         <v>3</v>
       </c>
@@ -1842,11 +1891,11 @@
         <v>74000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="37.5" customHeight="1" thickBot="1">
       <c r="B18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="8">
@@ -1867,11 +1916,11 @@
         <v>16650</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="59" t="s">
+    <row r="19" spans="2:8" ht="16.3" thickBot="1">
+      <c r="B19" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23">
@@ -1886,13 +1935,13 @@
         <v>90650</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="90" t="s">
+    <row r="20" spans="2:8" ht="19.100000000000001" customHeight="1" thickBot="1">
+      <c r="B20" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="24">
         <v>0</v>
       </c>
@@ -1904,13 +1953,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="53" t="s">
+    <row r="21" spans="2:8" ht="18.899999999999999" thickBot="1">
+      <c r="B21" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="38">
         <f>(F16*1.17)+F19-(F20)</f>
         <v>145.11763999999999</v>
@@ -1923,7 +1972,7 @@
         <v>418708.8</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="18" customHeight="1">
       <c r="B22" s="40" t="s">
         <v>19</v>
       </c>
@@ -1934,7 +1983,7 @@
       <c r="G22" s="42"/>
       <c r="H22" s="43"/>
     </row>
-    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="18" customHeight="1">
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -1943,40 +1992,40 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="50" t="s">
+    <row r="24" spans="2:8" ht="21" customHeight="1">
+      <c r="B24" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
     </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="50" t="s">
+    <row r="25" spans="2:8" ht="24" customHeight="1">
+      <c r="B25" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
     </row>
-    <row r="26" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="52" t="s">
+    <row r="26" spans="2:8" ht="27.75" customHeight="1">
+      <c r="B26" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8">
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
@@ -1985,18 +2034,18 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
     </row>
-    <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="50" t="s">
+    <row r="28" spans="2:8" ht="18.75" customHeight="1">
+      <c r="B28" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="44"/>
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
     </row>
-    <row r="29" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="21.75" customHeight="1">
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
@@ -2005,18 +2054,18 @@
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
     </row>
-    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="49" t="s">
+    <row r="30" spans="2:8" ht="15" customHeight="1">
+      <c r="B30" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8">
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
@@ -2025,24 +2074,30 @@
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="49" t="s">
+    <row r="32" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B32" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B2:H2"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="B4:H4"/>
@@ -2054,16 +2109,9 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$H$6</formula1>
     </dataValidation>
   </dataValidations>
